--- a/Templates/docs/SWP391-AppDevProject_Backlog Template.xlsx
+++ b/Templates/docs/SWP391-AppDevProject_Backlog Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP391-Project/SWP391_Constructivism/Students/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 3\SWP391\Templates\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902FB34F-B55B-074E-A9E4-9D72A141B18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1860" windowWidth="26840" windowHeight="14880" activeTab="5" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="1575" yWindow="1860" windowWidth="26835" windowHeight="14880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$F$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -291,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,7 +497,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{962DD808-D234-E447-A3DA-EC3FA1D4FD3F}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB98B27F-7219-5146-AEA2-213319431025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1215,25 +1214,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1256,7 +1255,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1265,7 +1264,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1274,7 +1273,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1283,7 +1282,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1292,7 +1291,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1301,7 +1300,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1311,14 +1310,14 @@
       <c r="D10" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD9986-9B81-BC45-A69A-43ECFCC07D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1329,45 +1328,45 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="96.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="228" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="96.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="228" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f>ROW()-8</f>
         <v>1</v>
@@ -1408,7 +1407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" ref="A10:A23" si="0">ROW()-8</f>
         <v>2</v>
@@ -1429,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1450,7 +1449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1471,7 +1470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1492,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1513,7 +1512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1534,7 +1533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1555,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1576,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1597,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1618,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1639,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1660,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1681,7 +1680,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1702,14 +1701,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>63</v>
       </c>
@@ -1720,7 +1719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>66</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>69</v>
       </c>
@@ -1742,21 +1741,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
@@ -1764,9 +1763,9 @@
       <c r="D30" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F23"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D23" xr:uid="{8BF5F807-9562-7C4B-B44F-24DB174AA390}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D23">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1777,57 +1776,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" ref="A9:A15" si="0">ROW()-8</f>
         <v>1</v>
@@ -1879,7 +1878,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1905,7 +1904,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1931,7 +1930,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1957,7 +1956,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1983,7 +1982,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2009,7 +2008,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2036,12 +2035,12 @@
       <c r="H15" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{0A52F270-8D08-CB4E-ABE1-1604F3C71437}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{87586766-5E28-254B-B022-5E1E8820EF2F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2052,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E02CF8-FB3D-DF4A-9262-C19A1859D225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2063,46 +2062,46 @@
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" ref="A9:A15" si="0">ROW()-8</f>
         <v>1</v>
@@ -2154,7 +2153,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2206,7 +2205,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2232,7 +2231,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2258,7 +2257,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2284,7 +2283,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2311,12 +2310,12 @@
       <c r="H15" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{B3199990-1CD6-4442-88CA-D202DBF258D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{48025CE9-D984-E14E-9A4B-B672BA26BABD}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2327,7 +2326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76392B5-BE4C-8F4A-B57C-99BFF07D651C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2338,46 +2337,46 @@
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" ref="A9:A15" si="0">ROW()-8</f>
         <v>1</v>
@@ -2429,7 +2428,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2455,7 +2454,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2481,7 +2480,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2507,7 +2506,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2559,7 +2558,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2586,12 +2585,12 @@
       <c r="H15" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{FE5E331B-AD71-5141-8B18-FC26AA4FCD69}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{70A2B012-44E8-4240-811A-7A10310638DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2602,57 +2601,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ADA136-893E-BA41-A2C5-5E590F24A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" ref="A9:A15" si="0">ROW()-8</f>
         <v>1</v>
@@ -2704,7 +2703,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2730,7 +2729,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2756,7 +2755,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2782,7 +2781,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2808,7 +2807,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2834,7 +2833,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2861,12 +2860,12 @@
       <c r="H15" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{914F4378-E613-DB4A-A4A0-606756B90FEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{7C7F35BB-3A6A-AD4E-BFD8-B115944E2C99}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
